--- a/attachments/DSJ_AE_Sustainable_Operations_and_Circular_Economy.xlsx
+++ b/attachments/DSJ_AE_Sustainable_Operations_and_Circular_Economy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\DSJ AEs and ERBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B15D85-91A5-4C63-951F-50AE2C3BB8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05255715-47E5-4669-A9D5-C2A83E88C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_233002E8_F7D1_42B5_BE95_3A5F3AABF9AC_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$24</definedName>
+    <definedName name="Z_233002E8_F7D1_42B5_BE95_3A5F3AABF9AC_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="227">
   <si>
     <t>First Name</t>
   </si>
@@ -688,13 +688,37 @@
   </si>
   <si>
     <t>Editorial Review Board Members</t>
+  </si>
+  <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>kai.pan@polyu.edu.hk</t>
+  </si>
+  <si>
+    <t>Department of Logistics and Maritime Studies</t>
+  </si>
+  <si>
+    <t>Stochastic Optimization</t>
+  </si>
+  <si>
+    <t>Data-Driven Optimization</t>
+  </si>
+  <si>
+    <t>Energy System</t>
+  </si>
+  <si>
+    <t>Smart cities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -740,6 +764,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -773,32 +804,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1016,11 +1050,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L998"/>
+  <dimension ref="A1:L999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1075,7 +1109,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B2" s="3"/>
@@ -1450,76 +1484,72 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11" t="s">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8" t="s">
-        <v>111</v>
+      <c r="A16" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>17</v>
@@ -1528,36 +1558,36 @@
         <v>29</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>17</v>
@@ -1569,71 +1599,71 @@
         <v>80</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>17</v>
@@ -1642,36 +1672,36 @@
         <v>80</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>17</v>
@@ -1683,71 +1713,71 @@
         <v>141</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>17</v>
@@ -1756,36 +1786,36 @@
         <v>29</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>17</v>
@@ -1794,32 +1824,36 @@
         <v>29</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>17</v>
@@ -1828,70 +1862,66 @@
         <v>29</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>17</v>
@@ -1900,72 +1930,72 @@
         <v>80</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>17</v>
@@ -1974,56 +2004,93 @@
         <v>29</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2992,11 +3059,12 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{233002E8-F7D1-42B5-BE95-3A5F3AABF9AC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L25" xr:uid="{6D796BFD-34ED-4BB4-B24B-C82B6A4EA260}"/>
+      <autoFilter ref="A1:L25" xr:uid="{240D5EF0-25BE-49FA-A25D-B587D0B18407}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1955316490"/>
@@ -3005,11 +3073,12 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C26" r:id="rId2" xr:uid="{93836D46-6578-4A49-81CA-746716C749E5}"/>
+    <hyperlink ref="C27" r:id="rId2" xr:uid="{93836D46-6578-4A49-81CA-746716C749E5}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{8C7AA49F-D682-4DE0-9BAD-D9FE05881DDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/attachments/DSJ_AE_Sustainable_Operations_and_Circular_Economy.xlsx
+++ b/attachments/DSJ_AE_Sustainable_Operations_and_Circular_Economy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\DSJ AEs and ERBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05255715-47E5-4669-A9D5-C2A83E88C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A3F97A-F674-4868-A6E1-C5BF8E7ADAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_233002E8_F7D1_42B5_BE95_3A5F3AABF9AC_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$25</definedName>
+    <definedName name="Z_233002E8_F7D1_42B5_BE95_3A5F3AABF9AC_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="232">
   <si>
     <t>First Name</t>
   </si>
@@ -712,6 +712,21 @@
   </si>
   <si>
     <t>Smart cities</t>
+  </si>
+  <si>
+    <t>Sandun</t>
+  </si>
+  <si>
+    <t>Perera</t>
+  </si>
+  <si>
+    <t>sperera@unr.edu</t>
+  </si>
+  <si>
+    <t>University of Nevada, Reno</t>
+  </si>
+  <si>
+    <t>College of Business</t>
   </si>
 </sst>
 </file>
@@ -808,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -827,9 +842,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1050,11 +1066,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L999"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1491,7 +1507,7 @@
       <c r="B13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>221</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1518,76 +1534,64 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9" t="s">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8" t="s">
-        <v>111</v>
+      <c r="A17" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>17</v>
@@ -1596,36 +1600,36 @@
         <v>29</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>17</v>
@@ -1637,71 +1641,71 @@
         <v>80</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>17</v>
@@ -1710,36 +1714,36 @@
         <v>80</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>17</v>
@@ -1751,71 +1755,71 @@
         <v>141</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>17</v>
@@ -1824,36 +1828,36 @@
         <v>29</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>17</v>
@@ -1862,32 +1866,36 @@
         <v>29</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>17</v>
@@ -1896,70 +1904,66 @@
         <v>29</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>17</v>
@@ -1968,72 +1972,72 @@
         <v>80</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L27" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>17</v>
@@ -2042,56 +2046,93 @@
         <v>29</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3060,11 +3101,12 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{233002E8-F7D1-42B5-BE95-3A5F3AABF9AC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L25" xr:uid="{240D5EF0-25BE-49FA-A25D-B587D0B18407}"/>
+      <autoFilter ref="A1:L25" xr:uid="{AA40AF06-6668-4BA7-87CA-B37A6D54056F}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1955316490"/>
@@ -3073,12 +3115,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C27" r:id="rId2" xr:uid="{93836D46-6578-4A49-81CA-746716C749E5}"/>
+    <hyperlink ref="C28" r:id="rId2" xr:uid="{93836D46-6578-4A49-81CA-746716C749E5}"/>
     <hyperlink ref="C13" r:id="rId3" xr:uid="{8C7AA49F-D682-4DE0-9BAD-D9FE05881DDB}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{CCD1DB78-E43B-488D-8564-1B58C68C9033}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
